--- a/xlsx/SendMail.xlsx
+++ b/xlsx/SendMail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courage\Python\OAMail\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA576DD-E8A2-4972-85AE-814BD247AA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6347FB8-004A-42E3-A912-9FF21295E6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6A9AD4A6-DF81-48A7-8F9B-8820B7953B2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6A9AD4A6-DF81-48A7-8F9B-8820B7953B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>fullsail@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fullsail@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>TEST001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,19 +44,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST001
+我爱北京天安门01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST002
+我爱北京天安门02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST003
+我爱北京天安门03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发件人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（填写发送人邮箱，Outlook有时候有多个人邮箱）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test001@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>收件人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（填写收件人的邮箱，多人用分号隔离）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄送人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（填写抄送对象的邮箱；多人用分号隔离）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test002@163.com;test003@163.com;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标题信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每一行是一个邮件）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test004@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +189,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -120,12 +227,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,69 +557,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF748F-D028-45F2-A3CF-C5CA28231DC4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="47.4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{217A13DF-6A06-458D-8D0B-311DBB7392A6}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{945D10CF-0888-45FE-A1A8-D314440157DD}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{D9CFE612-639B-4CA0-96A0-E247DD7CF094}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{633ED3B2-4585-473E-B186-BF3B232F4DD7}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{71137987-7A2E-4C75-B800-7A152DBB2241}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{10ECA748-75DB-4DFF-8D0D-77C812483E9C}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{BE1C45A3-78D6-4246-8D8F-2E619B2339F6}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{E3FE7C95-D61B-49E7-A0AC-39CC5DC26D37}"/>
+    <hyperlink ref="B3:B4" r:id="rId5" display="test002@163.com;test003@163.com;" xr:uid="{1A176C56-3C2D-49C5-8E87-3DC28304078A}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{38367B1F-4745-45CE-80AB-DDC25ADF53AE}"/>
+    <hyperlink ref="C3:C4" r:id="rId7" display="test004@163.com" xr:uid="{E3C4E9D0-A5BB-488C-BB9D-C8005FA4787C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId8"/>
 </worksheet>
 </file>